--- a/greenplum/datawarehouse/QA/qa-all-db-checks/truven/truven-variable-mapping.xlsx
+++ b/greenplum/datawarehouse/QA/qa-all-db-checks/truven/truven-variable-mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\uthealth-dw\greenplum\datawarehouse\QA\qa-all-db-checks\truven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43CB553-EB56-4CA7-AE3C-B2654851FEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0C095-1DF8-4E98-A962-F9F22B9AC9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5921B76B-A9E1-4B17-AC3B-ED914CC660B4}"/>
+    <workbookView xWindow="6480" yWindow="0" windowWidth="17850" windowHeight="12360" xr2:uid="{5921B76B-A9E1-4B17-AC3B-ED914CC660B4}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="124">
   <si>
     <t>data_source</t>
   </si>
@@ -184,42 +184,18 @@
     <t>'truv' (hard-coded text)</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>data_warehouse.dim_uth_claim_id</t>
   </si>
   <si>
     <t>truven.ccaes</t>
   </si>
   <si>
-    <t>dev.ccaes</t>
-  </si>
-  <si>
-    <t>dev.ccaef</t>
-  </si>
-  <si>
     <t>mods</t>
   </si>
   <si>
-    <t>enrolid, msclmid, facid converted to text, distributed by enrolid and msclmid</t>
-  </si>
-  <si>
     <t>truven.ccaef</t>
   </si>
   <si>
-    <t>retain only enrolid, fachid, and max(billtyp) (group by enrolid, fachdid), distributed by enrolid, fachdid</t>
-  </si>
-  <si>
-    <t>dev.truv_dim_id</t>
-  </si>
-  <si>
     <t>retain only truven records, distributed by member_id_src, claim_id_src</t>
   </si>
   <si>
@@ -322,28 +298,115 @@
     <t>enrolid</t>
   </si>
   <si>
-    <t>Primary source table: CCAES</t>
-  </si>
-  <si>
     <t>table name</t>
   </si>
   <si>
     <t>Loading method:</t>
   </si>
   <si>
-    <t>Raw tables from Truven schema are converted into intermediate tables in dev schema</t>
-  </si>
-  <si>
-    <t>Tables in dev are loaded into dw_staging tables according to the table to the left</t>
-  </si>
-  <si>
     <t>Modifications are minimal and are limited to subsetting tables and minor data type conversions (see list below)</t>
   </si>
   <si>
     <t>Once tables pass QC, then they are inserted into data_warehouse</t>
   </si>
   <si>
-    <t xml:space="preserve">claims-details </t>
+    <t>ccaes</t>
+  </si>
+  <si>
+    <t>ccaeo</t>
+  </si>
+  <si>
+    <t>commercial inpatient services</t>
+  </si>
+  <si>
+    <t>commercial outpatient services</t>
+  </si>
+  <si>
+    <t>mdcrs</t>
+  </si>
+  <si>
+    <t>mdcro</t>
+  </si>
+  <si>
+    <t>medicare advantage inpatient services</t>
+  </si>
+  <si>
+    <t>medicare advantage outpatient services</t>
+  </si>
+  <si>
+    <t>data_warehouse.claim_details is loaded into Truven from the following primary source tables</t>
+  </si>
+  <si>
+    <t>truven.mdcrs</t>
+  </si>
+  <si>
+    <t>enrolid, msclmid, facid converted to bigint, distributed by enrolid and msclmid</t>
+  </si>
+  <si>
+    <t>retain only enrolid, fachid, and max(billtyp) (group by enrolid, fachdid - reduce redundancy), distributed by enrolid, fachdid</t>
+  </si>
+  <si>
+    <t>truven.ccaeo</t>
+  </si>
+  <si>
+    <t>truven.mdcro</t>
+  </si>
+  <si>
+    <t>staging_clean.ccaes</t>
+  </si>
+  <si>
+    <t>staging_clean.mdcrs</t>
+  </si>
+  <si>
+    <t>staging_clean.ccaeo</t>
+  </si>
+  <si>
+    <t>staging_clean.mdcro</t>
+  </si>
+  <si>
+    <t>staging_clean.ccaef</t>
+  </si>
+  <si>
+    <t>staging_clean.truv_dim_id</t>
+  </si>
+  <si>
+    <t>Raw tables from Truven schema are converted into intermediate tables in staging_clean schema</t>
+  </si>
+  <si>
+    <t>Tables in staging_clean are loaded into dw_staging tables according to the table to the left</t>
+  </si>
+  <si>
+    <t>enrolid, msclmid, fachdid converted to bigint, distributed by enrolid and msclmid</t>
+  </si>
+  <si>
+    <t>staging_clean.mdcrf</t>
+  </si>
+  <si>
+    <t>truven.mdcrf</t>
+  </si>
+  <si>
+    <t>'ccaeo' (hard-coded text)</t>
+  </si>
+  <si>
+    <t>Primary source table: CCAES, MDCRS</t>
+  </si>
+  <si>
+    <t>staging_clean.ccaes / mdcrs</t>
+  </si>
+  <si>
+    <t>staging_clean.ccaes / mdcrs / mdcrs</t>
+  </si>
+  <si>
+    <t>Primary source table: CCAEO / MDCRO</t>
+  </si>
+  <si>
+    <t>staging_clean.ccaeo / mdcro</t>
+  </si>
+  <si>
+    <t>ccaes and mdcrs have the same table structure, just different data sources</t>
+  </si>
+  <si>
+    <t>same for ccaeo and mdcro</t>
   </si>
 </sst>
 </file>
@@ -399,12 +462,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -721,614 +783,1219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACC8BDB-3BA3-4260-81FA-9A09644D119B}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>102</v>
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>97</v>
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>101</v>
-      </c>
+      <c r="A10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>62</v>
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>62</v>
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
         <v>68</v>
       </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
         <v>69</v>
       </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>25</v>
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>86</v>
+      <c r="A34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>87</v>
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>88</v>
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>90</v>
+        <v>118</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>91</v>
+        <v>118</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3" t="s">
-        <v>62</v>
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
-        <v>62</v>
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
-        <v>62</v>
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
-        <v>62</v>
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3" t="s">
-        <v>62</v>
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>93</v>
+      <c r="A47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>93</v>
+      <c r="A48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/greenplum/datawarehouse/QA/qa-all-db-checks/truven/truven-variable-mapping.xlsx
+++ b/greenplum/datawarehouse/QA/qa-all-db-checks/truven/truven-variable-mapping.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\uthealth-dw\greenplum\datawarehouse\QA\qa-all-db-checks\truven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0C095-1DF8-4E98-A962-F9F22B9AC9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22A3786-758B-4F12-BE04-76AD57DA33E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="0" windowWidth="17850" windowHeight="12360" xr2:uid="{5921B76B-A9E1-4B17-AC3B-ED914CC660B4}"/>
+    <workbookView xWindow="6825" yWindow="345" windowWidth="20925" windowHeight="14340" activeTab="2" xr2:uid="{5921B76B-A9E1-4B17-AC3B-ED914CC660B4}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
+    <sheet name="header" sheetId="2" r:id="rId2"/>
+    <sheet name="diag" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +37,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CD9B7D9C-3FAF-4D4F-87E5-7E3E1182447E}</author>
+  </authors>
+  <commentList>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{CD9B7D9C-3FAF-4D4F-87E5-7E3E1182447E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    joe w will change</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="157">
   <si>
     <t>data_source</t>
   </si>
@@ -334,9 +355,6 @@
     <t>medicare advantage outpatient services</t>
   </si>
   <si>
-    <t>data_warehouse.claim_details is loaded into Truven from the following primary source tables</t>
-  </si>
-  <si>
     <t>truven.mdcrs</t>
   </si>
   <si>
@@ -394,9 +412,6 @@
     <t>staging_clean.ccaes / mdcrs</t>
   </si>
   <si>
-    <t>staging_clean.ccaes / mdcrs / mdcrs</t>
-  </si>
-  <si>
     <t>Primary source table: CCAEO / MDCRO</t>
   </si>
   <si>
@@ -407,13 +422,118 @@
   </si>
   <si>
     <t>same for ccaeo and mdcro</t>
+  </si>
+  <si>
+    <t>claim_type</t>
+  </si>
+  <si>
+    <t>uth_admission_id</t>
+  </si>
+  <si>
+    <t>total_charge_amount</t>
+  </si>
+  <si>
+    <t>total_allowed_amount</t>
+  </si>
+  <si>
+    <t>total_paid_amount</t>
+  </si>
+  <si>
+    <t>min(svcdate) as svcdate,</t>
+  </si>
+  <si>
+    <t>max(tsvcdat) as tsvcdat,</t>
+  </si>
+  <si>
+    <t>max(facprof) as facprof,</t>
+  </si>
+  <si>
+    <t>sum(netpay) as netpay,</t>
+  </si>
+  <si>
+    <t>sum(pay) as pay</t>
+  </si>
+  <si>
+    <t>group by enrolid, msclmid</t>
+  </si>
+  <si>
+    <t>For header, the tables in staging_clean are first made into a CTE with the following modifications</t>
+  </si>
+  <si>
+    <t>extract(year from a.svcdate)</t>
+  </si>
+  <si>
+    <t>facprof</t>
+  </si>
+  <si>
+    <t>max(facprof)</t>
+  </si>
+  <si>
+    <t>max(tsvcdat)</t>
+  </si>
+  <si>
+    <t>min(svcdate)</t>
+  </si>
+  <si>
+    <t>current_date (function)</t>
+  </si>
+  <si>
+    <t>dev.fiscal_year_func(a.svcdate) as fiscal_year,</t>
+  </si>
+  <si>
+    <t>sum(netpay)</t>
+  </si>
+  <si>
+    <t>sum(pay)</t>
+  </si>
+  <si>
+    <t>Primary source table: CCAES, MDCRS, CCAEO, MDCRO</t>
+  </si>
+  <si>
+    <t>staging_clean.ccaes / mdcrs / ccaeo/ mdcro</t>
+  </si>
+  <si>
+    <t>'ccaes' / 'mdcrs' / 'ccaeo' / 'mdcro' (hard-coded text)</t>
+  </si>
+  <si>
+    <t>For claim_header, all 4 tables map the same way to the data_warehouse</t>
+  </si>
+  <si>
+    <t>Truven partition of data_warehouse.claim_diag is loaded from the following primary source tables</t>
+  </si>
+  <si>
+    <t>Truven partition of data_warehouse.claim_details is loaded from the following primary source tables</t>
+  </si>
+  <si>
+    <t>Truven partition of data_warehouse.claim_header is loaded from the following primary source tables</t>
+  </si>
+  <si>
+    <t>diag_cd</t>
+  </si>
+  <si>
+    <t>diag_position</t>
+  </si>
+  <si>
+    <t>poa_src</t>
+  </si>
+  <si>
+    <t>icd_version</t>
+  </si>
+  <si>
+    <t>dxver</t>
+  </si>
+  <si>
+    <t>dx1, dx2, dx3, dx4</t>
+  </si>
+  <si>
+    <t>position of dx code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,8 +549,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,6 +575,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -462,13 +594,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,6 +620,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Zhang, Xiaorui" id="{6A696846-8FCF-4F46-B964-F7E092E6B724}" userId="S::Xiaorui.Zhang@uth.tmc.edu::9933c8c6-fcae-47d5-b544-6de9c57a4f08" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,13 +923,19 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D12" dT="2023-01-06T20:27:08.18" personId="{6A696846-8FCF-4F46-B964-F7E092E6B724}" id="{CD9B7D9C-3FAF-4D4F-87E5-7E3E1182447E}">
+    <text>joe w will change</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACC8BDB-3BA3-4260-81FA-9A09644D119B}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -802,7 +950,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -839,17 +987,17 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -886,7 +1034,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -894,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -908,13 +1056,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -922,7 +1070,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -946,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
         <v>57</v>
@@ -966,19 +1114,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
         <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -991,13 +1139,13 @@
         <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" t="s">
         <v>100</v>
-      </c>
-      <c r="H19" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1005,7 +1153,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
@@ -1019,7 +1167,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
         <v>61</v>
@@ -1028,13 +1176,13 @@
         <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1042,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
@@ -1051,13 +1199,13 @@
         <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1065,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
         <v>64</v>
@@ -1076,19 +1224,19 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
         <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
         <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1096,7 +1244,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -1105,13 +1253,13 @@
         <v>67</v>
       </c>
       <c r="F25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" t="s">
         <v>114</v>
       </c>
-      <c r="G25" t="s">
-        <v>115</v>
-      </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1119,7 +1267,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -1135,7 +1283,7 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G27" t="s">
         <v>49</v>
@@ -1149,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
         <v>69</v>
@@ -1170,7 +1318,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
         <v>71</v>
@@ -1184,7 +1332,7 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
         <v>73</v>
@@ -1198,7 +1346,7 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
         <v>74</v>
@@ -1209,7 +1357,7 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
         <v>75</v>
@@ -1230,7 +1378,7 @@
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
         <v>23</v>
@@ -1241,7 +1389,7 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
         <v>76</v>
@@ -1252,7 +1400,7 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
         <v>25</v>
@@ -1263,7 +1411,7 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
         <v>26</v>
@@ -1274,7 +1422,7 @@
         <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
         <v>77</v>
@@ -1288,7 +1436,7 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
         <v>77</v>
@@ -1302,7 +1450,7 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
         <v>77</v>
@@ -1316,7 +1464,7 @@
         <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
         <v>81</v>
@@ -1330,7 +1478,7 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
         <v>57</v>
@@ -1428,7 +1576,7 @@
         <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
         <v>84</v>
@@ -1442,7 +1590,7 @@
         <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
         <v>86</v>
@@ -1473,7 +1621,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1512,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -1523,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -1534,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
@@ -1555,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
         <v>57</v>
@@ -1566,7 +1714,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
         <v>58</v>
@@ -1587,7 +1735,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
         <v>60</v>
@@ -1601,7 +1749,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
         <v>61</v>
@@ -1615,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C70" t="s">
         <v>63</v>
@@ -1659,7 +1807,7 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -1680,7 +1828,7 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C76" t="s">
         <v>69</v>
@@ -1711,7 +1859,7 @@
         <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C79" t="s">
         <v>73</v>
@@ -1725,7 +1873,7 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
         <v>74</v>
@@ -1736,7 +1884,7 @@
         <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C81" t="s">
         <v>75</v>
@@ -1757,7 +1905,7 @@
         <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s">
         <v>23</v>
@@ -1768,7 +1916,7 @@
         <v>24</v>
       </c>
       <c r="B84" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
         <v>76</v>
@@ -1779,7 +1927,7 @@
         <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
         <v>25</v>
@@ -1790,7 +1938,7 @@
         <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C86" t="s">
         <v>26</v>
@@ -1801,7 +1949,7 @@
         <v>27</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C87" t="s">
         <v>77</v>
@@ -1815,7 +1963,7 @@
         <v>28</v>
       </c>
       <c r="B88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C88" t="s">
         <v>77</v>
@@ -1829,7 +1977,7 @@
         <v>29</v>
       </c>
       <c r="B89" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C89" t="s">
         <v>77</v>
@@ -1843,7 +1991,7 @@
         <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C90" t="s">
         <v>81</v>
@@ -1857,7 +2005,7 @@
         <v>31</v>
       </c>
       <c r="B91" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
         <v>57</v>
@@ -1887,7 +2035,7 @@
         <v>47</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1955,7 +2103,7 @@
         <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C100" t="s">
         <v>84</v>
@@ -1969,7 +2117,7 @@
         <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C101" t="s">
         <v>86</v>
@@ -2002,4 +2150,988 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D908F1-D986-419F-A00C-0D9AA4775C54}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="F30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="F31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B56530-DB2B-4F00-804F-415ECFECD669}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="F9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="F13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740AA04F-4815-4CFA-8E5B-9F726FEAE428}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/greenplum/datawarehouse/QA/qa-all-db-checks/truven/truven-variable-mapping.xlsx
+++ b/greenplum/datawarehouse/QA/qa-all-db-checks/truven/truven-variable-mapping.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\uthealth-dw\greenplum\datawarehouse\QA\qa-all-db-checks\truven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22A3786-758B-4F12-BE04-76AD57DA33E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D63445B-71BB-4387-869A-FDC26CB495B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="345" windowWidth="20925" windowHeight="14340" activeTab="2" xr2:uid="{5921B76B-A9E1-4B17-AC3B-ED914CC660B4}"/>
+    <workbookView xWindow="2985" yWindow="345" windowWidth="20925" windowHeight="12360" tabRatio="728" activeTab="4" xr2:uid="{5921B76B-A9E1-4B17-AC3B-ED914CC660B4}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
     <sheet name="header" sheetId="2" r:id="rId2"/>
     <sheet name="diag" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="icd_proc" sheetId="5" r:id="rId4"/>
+    <sheet name="pharmacy_claims" sheetId="7" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="229">
   <si>
     <t>data_source</t>
   </si>
@@ -527,13 +531,229 @@
   </si>
   <si>
     <t>position of dx code</t>
+  </si>
+  <si>
+    <t>ccaef</t>
+  </si>
+  <si>
+    <t>mdcrf</t>
+  </si>
+  <si>
+    <t>commercial facility header</t>
+  </si>
+  <si>
+    <t>medicare advantage facility header</t>
+  </si>
+  <si>
+    <t>proc_cd</t>
+  </si>
+  <si>
+    <t>proc_position</t>
+  </si>
+  <si>
+    <t>position of procedure code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pproc, proc1-6* </t>
+  </si>
+  <si>
+    <t>see note</t>
+  </si>
+  <si>
+    <t>*pproc is from tables ending in 's', proc1-6 is from tables ending in 'f'</t>
+  </si>
+  <si>
+    <t>mdcrd</t>
+  </si>
+  <si>
+    <t>uth_rx_claim_id</t>
+  </si>
+  <si>
+    <t>fill_date</t>
+  </si>
+  <si>
+    <t>ndc</t>
+  </si>
+  <si>
+    <t>days_supply</t>
+  </si>
+  <si>
+    <t>script_id</t>
+  </si>
+  <si>
+    <t>refill_count</t>
+  </si>
+  <si>
+    <t>generic_ind</t>
+  </si>
+  <si>
+    <t>generic_name</t>
+  </si>
+  <si>
+    <t>brand_name</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>provider_npi</t>
+  </si>
+  <si>
+    <t>pharmacy_id</t>
+  </si>
+  <si>
+    <t>therapeutic_class</t>
+  </si>
+  <si>
+    <t>ahfs_class</t>
+  </si>
+  <si>
+    <t>first_fill</t>
+  </si>
+  <si>
+    <t>retail_or_mail_indicator</t>
+  </si>
+  <si>
+    <t>dispensed_as_written</t>
+  </si>
+  <si>
+    <t>dose</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>formulary_ind</t>
+  </si>
+  <si>
+    <t>special_drug_ind</t>
+  </si>
+  <si>
+    <t>rx_claim_id_src</t>
+  </si>
+  <si>
+    <t>uth_script_id</t>
+  </si>
+  <si>
+    <t>staging_clean.truven_proc</t>
+  </si>
+  <si>
+    <t>truven.ccaes, truven.mdcrs</t>
+  </si>
+  <si>
+    <t>union all of relevant columns from 's' tables, keeping only rows where pproc is not null, no modifications, distributed by (enrolid, msclmid)</t>
+  </si>
+  <si>
+    <t>staging_clean.ccaef_proc</t>
+  </si>
+  <si>
+    <t>staging_clean.mdcrf_proc</t>
+  </si>
+  <si>
+    <t>relevant columns + unnest array of proc codes 1-6, keep distinct rows only, distributed by (enrolid, msclmid)</t>
+  </si>
+  <si>
+    <t>staging_clean.truven_proc, ccaef_proc, mdcrf_proc</t>
+  </si>
+  <si>
+    <t>ccaed</t>
+  </si>
+  <si>
+    <t>medicare advantage drug claims</t>
+  </si>
+  <si>
+    <t>commercial drug claims</t>
+  </si>
+  <si>
+    <t>data_warehouse.dim_uth_rx_claim_id</t>
+  </si>
+  <si>
+    <t>staging_clean.truven_rx_claim_id</t>
+  </si>
+  <si>
+    <t>member_id_src::bigint, retain only truven partition</t>
+  </si>
+  <si>
+    <t>staging_clean.ccaed_etl</t>
+  </si>
+  <si>
+    <t>staging_clean.mdcrd_etl</t>
+  </si>
+  <si>
+    <t>truven.ccaed</t>
+  </si>
+  <si>
+    <t>truven.mdcrd</t>
+  </si>
+  <si>
+    <t>copy of original table with enrolid || ndcnum || svcdate as rx_id_src</t>
+  </si>
+  <si>
+    <t>staging_clean.ccaed_etl/mdcrd_etl</t>
+  </si>
+  <si>
+    <t>ndcnum</t>
+  </si>
+  <si>
+    <t>lpad(a.ndcnum::text,11,'0')</t>
+  </si>
+  <si>
+    <t>dayssupp</t>
+  </si>
+  <si>
+    <t>refill</t>
+  </si>
+  <si>
+    <t>get_my_from_date(a.svcdate)</t>
+  </si>
+  <si>
+    <t>genind</t>
+  </si>
+  <si>
+    <t>generid</t>
+  </si>
+  <si>
+    <t>generid::text</t>
+  </si>
+  <si>
+    <t>pharmid</t>
+  </si>
+  <si>
+    <t>thercls</t>
+  </si>
+  <si>
+    <t>rx_id_src</t>
+  </si>
+  <si>
+    <t>enrolid::text</t>
+  </si>
+  <si>
+    <t>ccaed' or 'mdcrd' (hard-coded)</t>
+  </si>
+  <si>
+    <t>rxmr</t>
+  </si>
+  <si>
+    <t>dawind</t>
+  </si>
+  <si>
+    <t>coalesce(a.dawind,'00')</t>
+  </si>
+  <si>
+    <t>mstfmds</t>
+  </si>
+  <si>
+    <t>strngth</t>
+  </si>
+  <si>
+    <t>reference_tables.redbook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,12 +768,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -594,17 +808,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,6 +833,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="I7" t="str">
+            <v>problems</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v>all</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="H8">
+            <v>1</v>
+          </cell>
+          <cell r="I8">
+            <v>6.6747801211999545E-3</v>
+          </cell>
+          <cell r="J8">
+            <v>4.0872307294272176E-6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
+            <v>2</v>
+          </cell>
+          <cell r="I9">
+            <v>3.4227067989912548E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>4.2673870077716827E-5</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="H10">
+            <v>3</v>
+          </cell>
+          <cell r="I10">
+            <v>0.10442517847508877</v>
+          </cell>
+          <cell r="J10">
+            <v>4.2303529628375322E-4</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11">
+            <v>4</v>
+          </cell>
+          <cell r="I11">
+            <v>0.25290139643426218</v>
+          </cell>
+          <cell r="J11">
+            <v>4.2032119526892462E-3</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12">
+            <v>5</v>
+          </cell>
+          <cell r="I12">
+            <v>0.2770033750297981</v>
+          </cell>
+          <cell r="J12">
+            <v>3.9364375039270871E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13">
+            <v>6</v>
+          </cell>
+          <cell r="I13">
+            <v>0.24574984630440511</v>
+          </cell>
+          <cell r="J13">
+            <v>0.22707552593452845</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14">
+            <v>7</v>
+          </cell>
+          <cell r="I14">
+            <v>7.6283201385142343E-2</v>
+          </cell>
+          <cell r="J14">
+            <v>0.43118243346407642</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15">
+            <v>8</v>
+          </cell>
+          <cell r="I15">
+            <v>2.7351542601909591E-3</v>
+          </cell>
+          <cell r="J15">
+            <v>0.29725716423167015</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -935,7 +1258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACC8BDB-3BA3-4260-81FA-9A09644D119B}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2265,7 +2590,7 @@
       <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>134</v>
       </c>
       <c r="F12" t="s">
@@ -2301,16 +2626,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" t="s">
         <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" t="s">
         <v>136</v>
       </c>
       <c r="F15" t="s">
@@ -2327,7 +2652,7 @@
       <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" t="s">
         <v>138</v>
       </c>
       <c r="F16" t="s">
@@ -2344,7 +2669,7 @@
       <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" t="s">
         <v>137</v>
       </c>
       <c r="F17" t="s">
@@ -2365,33 +2690,33 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" t="s">
         <v>124</v>
       </c>
       <c r="B19" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" t="s">
         <v>125</v>
       </c>
       <c r="B20" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2406,16 +2731,16 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2535,16 +2860,15 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" t="s">
         <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="7"/>
       <c r="F30" t="s">
         <v>108</v>
       </c>
@@ -2556,16 +2880,15 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" t="s">
         <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="7"/>
       <c r="F31" t="s">
         <v>113</v>
       </c>
@@ -2577,7 +2900,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2586,12 +2909,12 @@
       <c r="C32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2600,7 +2923,7 @@
       <c r="C33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" t="s">
         <v>139</v>
       </c>
       <c r="F33" t="s">
@@ -2632,10 +2955,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B56530-DB2B-4F00-804F-415ECFECD669}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2720,16 +3043,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F11" t="s">
@@ -2737,28 +3060,26 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>87</v>
       </c>
@@ -2770,7 +3091,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
@@ -2779,7 +3100,6 @@
       <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="7"/>
       <c r="F14" t="s">
         <v>104</v>
       </c>
@@ -2791,16 +3111,15 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" t="s">
         <v>150</v>
       </c>
       <c r="B15" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="7"/>
       <c r="F15" t="s">
         <v>105</v>
       </c>
@@ -2812,16 +3131,15 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" t="s">
         <v>151</v>
       </c>
       <c r="B16" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -2843,16 +3161,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" t="s">
         <v>153</v>
       </c>
       <c r="B18" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" t="s">
         <v>154</v>
       </c>
-      <c r="D18" s="7"/>
       <c r="F18" t="s">
         <v>107</v>
       </c>
@@ -2864,25 +3181,23 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
+      <c r="D19" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="7"/>
       <c r="F20" t="s">
         <v>109</v>
       </c>
@@ -2904,110 +3219,41 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-    </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3016,122 +3262,859 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740AA04F-4815-4CFA-8E5B-9F726FEAE428}">
-  <dimension ref="A1:M15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247AE74F-A136-4BD8-9371-361D713522CB}">
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="F7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
+      <c r="B20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59E1A38-12E5-4800-A45D-35B56B323851}">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="F7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>